--- a/tf_figure/gly2.xlsx
+++ b/tf_figure/gly2.xlsx
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,13 +115,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1">
       <protection hidden="0" locked="1"/>
     </xf>
   </cellXfs>
@@ -639,10 +660,10 @@
   <sheetData>
     <row r="1" ht="14.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -683,70 +704,132 @@
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
       <c r="D2" s="1">
         <v>-1</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
       <c r="F3" s="1">
         <v>-1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
         <v>-1</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
       <c r="D5" s="1">
         <v>-1</v>
       </c>
@@ -762,155 +845,305 @@
       <c r="H5" s="1">
         <v>-1</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="G6" s="1">
         <v>-1</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
       <c r="J7" s="1">
         <v>-1</v>
       </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
       <c r="J8" s="1">
         <v>1</v>
       </c>
       <c r="K8" s="1">
         <v>-1</v>
       </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
       <c r="I9" s="1">
         <v>-1</v>
       </c>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
       <c r="L10" s="1">
         <v>-1</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
         <v>-1</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
       <c r="M12" s="1">
         <v>-1</v>
       </c>
@@ -959,7 +1192,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>